--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tf_nira\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51EA9B-8DB3-4979-A26D-182F33530743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732552D-6DBE-466E-9E7A-9AE0A1F55596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7072" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="722">
   <si>
     <t>code</t>
   </si>
@@ -2114,6 +2114,78 @@
   </si>
   <si>
     <t>Regproc Renewal SMS</t>
+  </si>
+  <si>
+    <t>RPR_MVS_RJT_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for MVS Reject Email</t>
+  </si>
+  <si>
+    <t>RPR_MVS_RJT_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Template for MVS Reject Subject</t>
+  </si>
+  <si>
+    <t>RPR_MVS_RJT_SMS</t>
+  </si>
+  <si>
+    <t>Template for MVS Reject SMS</t>
+  </si>
+  <si>
+    <t>RPR_MVS_INT_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for MVS Interview Email</t>
+  </si>
+  <si>
+    <t>RPR_MVS_INT_SMS</t>
+  </si>
+  <si>
+    <t>Template for MVS Interview SMS</t>
+  </si>
+  <si>
+    <t>RPR_FIRSTID_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for GetFirstId  Email</t>
+  </si>
+  <si>
+    <t>RPR_FIRSTID_SMS</t>
+  </si>
+  <si>
+    <t>Template for GetFirstId SMS</t>
+  </si>
+  <si>
+    <t>RPR_FIRSTID_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>FirstId Details Updated</t>
+  </si>
+  <si>
+    <t>RPR_ONDEMAND_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for Ondemand Email</t>
+  </si>
+  <si>
+    <t>RPR_ONDEMAND_SMS</t>
+  </si>
+  <si>
+    <t>Template for Ondemand SMS</t>
+  </si>
+  <si>
+    <t>RPR_ONDEMAND_SUB</t>
+  </si>
+  <si>
+    <t>Template for Ondemand Subject</t>
+  </si>
+  <si>
+    <t>reg-cop-preview-template-part</t>
+  </si>
+  <si>
+    <t>Preview generated after registration COP</t>
   </si>
 </sst>
 </file>
@@ -2480,16 +2552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1768"/>
+  <dimension ref="A1:D1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A1765" workbookViewId="0">
+      <selection activeCell="B1774" sqref="B1774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
@@ -27246,6 +27318,174 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
